--- a/Basic function/Conditional formatitng.xlsx
+++ b/Basic function/Conditional formatitng.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Data Analysis with Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel\Basic function\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Highlight blank cell" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="top 10 and bottom 10" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
+    <sheet name="Char conditional Formating" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="98">
   <si>
     <t>Salesperson</t>
   </si>
@@ -278,6 +280,60 @@
   </si>
   <si>
     <t>Highlight all the blank cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Kishan</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>Gopal</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Pardeep</t>
   </si>
 </sst>
 </file>
@@ -398,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -445,12 +501,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,31 +552,17 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -513,35 +570,9 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -606,6 +637,64 @@
             <color theme="1" tint="0.1490218817712943"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -926,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K46" sqref="B2:K46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2252,7 +2341,7 @@
     <mergeCell ref="N6:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:K46">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="15" priority="2">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2265,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2722,7 +2811,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2734,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="B2:G19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3665,8 +3754,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="aboveAverage" dxfId="3" priority="1" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="13" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4132,9 +4221,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="top10" dxfId="1" priority="4" rank="10"/>
-    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="top10" dxfId="11" priority="4" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="5" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4146,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
@@ -4764,7 +4853,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32">
+    <cfRule type="expression" dxfId="8" priority="32">
       <formula>OR($B$2:$B$19&gt;$B$3)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4825,7 +4914,7 @@
       </extLst>
     </cfRule>
     <cfRule type="uniqueValues" priority="27"/>
-    <cfRule type="uniqueValues" dxfId="12" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="28"/>
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -4994,10 +5083,10 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND(F6&gt;=75%, F6&lt;75%)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND(F6&gt;=0%, F6&lt;50%)</formula>
     </cfRule>
     <cfRule type="dataBar" priority="5">
@@ -5014,18 +5103,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>$D$2</formula>
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>NOT(ISBLANK($G2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>ISBLANK($G2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5276,7 +5365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -5772,4 +5861,751 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3799</v>
+      </c>
+      <c r="C2" s="2">
+        <v>557</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3863</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1117</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8237</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18930</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1042</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9355</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10185</v>
+      </c>
+      <c r="G3" s="2">
+        <v>18749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5725</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3072</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6702</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2116</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13452</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1344</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3755</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4415</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1089</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4404</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8296</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3152</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11601</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1122</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3170</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3945</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4056</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3726</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1135</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8817</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4906</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9007</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2113</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13090</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3742</v>
+      </c>
+      <c r="C9" s="2">
+        <v>521</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4505</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1024</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3528</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7605</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3428</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3973</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1716</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4839</v>
+      </c>
+      <c r="G10" s="2">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5304</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1562</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2945</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1176</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9642</v>
+      </c>
+      <c r="G11" s="2">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9333</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2779</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7549</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1101</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5850</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1103</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3470</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3862</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1040</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10024</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1333</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1913</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4596</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1126</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5503</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12398</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2883</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2142</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13547</v>
+      </c>
+      <c r="G15" s="2">
+        <v>21983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3251</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4931</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8283</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1054</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9543</v>
+      </c>
+      <c r="G16" s="2">
+        <v>11967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4624</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4798</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8420</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1389</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10468</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2552</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4459</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2248</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1058</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6267</v>
+      </c>
+      <c r="G18" s="2">
+        <v>14982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4281</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4172</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11074</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1282</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2365</v>
+      </c>
+      <c r="G19" s="2">
+        <v>9380</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B19">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37A44EF8-3401-4557-ACD9-039EF8EDF8B1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E12ED34C-280C-4B05-B6E4-1E358A6C8301}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37A44EF8-3401-4557-ACD9-039EF8EDF8B1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E12ED34C-280C-4B05-B6E4-1E358A6C8301}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:G9">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>